--- a/Exam_Daily_Record.xlsx
+++ b/Exam_Daily_Record.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>October</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>unit testing</t>
+  </si>
+  <si>
+    <t>FORM</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Insert Data</t>
   </si>
 </sst>
 </file>
@@ -112,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +155,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -190,6 +211,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,78 +651,105 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="Q7" s="15"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="E12" s="6"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="C1:U1"/>
     <mergeCell ref="C2:Q2"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
